--- a/medicine/Enfance/Alice_et_l'Épouvanteur/Alice_et_l'Épouvanteur.xlsx
+++ b/medicine/Enfance/Alice_et_l'Épouvanteur/Alice_et_l'Épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_l%27%C3%89pouvanteur</t>
+          <t>Alice_et_l'Épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alice et l'Épouvanteur (titre original : Spook's: Alice) est le douzième tome de la série L'Épouvanteur signée Joseph Delaney. Paru en 2013, il est précédé par Le Pacte de Sliter et suivi par La Revanche de l'épouvanteur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_l%27%C3%89pouvanteur</t>
+          <t>Alice_et_l'Épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa quête de destruction du Malin, Thomas Ward dût accomplir un dangereux rituel lors de la prochaine fête d'Halloween. Pour cela il avait besoin de trois objets sacrés, trois armes. Les deux premières étaient déjà en sa possession. La dernière, "Douloureuse" était cachée sous le trône du Malin. Pour la récupérer Alice gagna alors l'obscur où le dieu Pan l'aida à traverser son territoire.
 Sur le chemin, Alice rencontra Thorne, l'ancienne apprentie de Grimalkin. Ensemble elles parvinrent à échapper au Kretch ainsi qu'à plusieurs Skelts avant d'arriver dans une ville hideuse. Utilisant leur flaire, les jeunes sorcières localisèrent rapidement le prochain portail dans la Basilique. Thrones prétendit connaitre un passage pour pénétrer dans le bâtiment, et guida Alice dans un piège, tout droit vers Betsy Gartton.
